--- a/conversations.xlsx
+++ b/conversations.xlsx
@@ -428,7 +428,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="43" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
     <col width="104" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
@@ -437,7 +437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Отзывы за период 31-08-2025_to_09-09-2025</t>
+          <t>Отзывы за период 31-08-2025</t>
         </is>
       </c>
     </row>
